--- a/analysis/data/raw_data/2017_CensusData_Final.xlsx
+++ b/analysis/data/raw_data/2017_CensusData_Final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsmsj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/kevin_see_dfw_wa_gov/Documents/Documents/Git/MyProjects/UCSthdReddObsErr/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E8711C79FE4783DE239CB0F4E978BC89EA750566" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DAC41F-DD53-45B3-A46C-4578FAB2827D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Survey Data" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' Survey Data'!$A$1:$M$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reach Area'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -705,7 +717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -880,8 +892,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,28 +1170,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="6"/>
-    <col min="13" max="13" width="14.33203125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="4" width="11.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="12.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="6"/>
+    <col min="13" max="13" width="14.36328125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3188,7 +3200,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -3475,7 +3487,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3528,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3651,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -3844,7 +3856,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4020,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>10</v>
       </c>
@@ -4090,7 +4102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
         <v>10</v>
       </c>
@@ -4172,7 +4184,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>10</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>10</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>10</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>10</v>
       </c>
@@ -4418,7 +4430,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>14</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>14</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>14</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>14</v>
       </c>
@@ -4664,7 +4676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>14</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>14</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="20" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>14</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>12</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>12</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +4963,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="20" t="s">
         <v>12</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>12</v>
       </c>
@@ -5033,7 +5045,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>12</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>12</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5168,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>12</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>12</v>
       </c>
@@ -5245,21 +5257,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="9" customWidth="1"/>
-    <col min="2" max="9" width="15.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="9"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="17.81640625" style="9" customWidth="1"/>
+    <col min="2" max="9" width="15.6328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="9"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="16384" width="9.08984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="27" t="s">
         <v>220</v>
@@ -5286,7 +5300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>175</v>
       </c>
@@ -5316,7 +5330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>176</v>
       </c>
@@ -5346,7 +5360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>177</v>
       </c>
@@ -5376,7 +5390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>178</v>
       </c>
@@ -5406,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>179</v>
       </c>
@@ -5436,7 +5450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>180</v>
       </c>
@@ -5466,7 +5480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>181</v>
       </c>
@@ -5496,7 +5510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>182</v>
       </c>
@@ -5526,7 +5540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>183</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>184</v>
       </c>
@@ -5586,7 +5600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>185</v>
       </c>
@@ -5616,7 +5630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
@@ -5646,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>187</v>
       </c>
@@ -5676,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>188</v>
       </c>
@@ -5706,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>189</v>
       </c>
@@ -5736,7 +5750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>190</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>191</v>
       </c>
@@ -5796,7 +5810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>192</v>
       </c>
@@ -5813,7 +5827,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>181</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>182</v>
       </c>
@@ -5849,7 +5863,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>183</v>
       </c>
@@ -5867,7 +5881,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>184</v>
       </c>
@@ -5885,7 +5899,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>185</v>
       </c>
@@ -5903,7 +5917,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -5921,7 +5935,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>182</v>
       </c>
@@ -5939,7 +5953,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>187</v>
       </c>
@@ -5957,7 +5971,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>3</v>
       </c>
@@ -5998,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>6</v>
       </c>
@@ -6019,7 +6033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +6074,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
@@ -6088,18 +6102,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="12.77734375" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="4" width="12.81640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>161</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>164</v>
       </c>
@@ -6127,7 +6141,7 @@
         <v>25609</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>164</v>
       </c>
@@ -6141,7 +6155,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>164</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>164</v>
       </c>
@@ -6169,7 +6183,7 @@
         <v>10877</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>164</v>
       </c>
@@ -6183,7 +6197,7 @@
         <v>13048</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
@@ -6197,7 +6211,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>164</v>
       </c>
@@ -6211,7 +6225,7 @@
         <v>10048</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>164</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>23728</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>164</v>
       </c>
@@ -6239,7 +6253,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -6253,7 +6267,7 @@
         <v>10222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>164</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>24520</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>164</v>
       </c>
@@ -6281,7 +6295,7 @@
         <v>12188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>164</v>
       </c>
@@ -6295,7 +6309,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>164</v>
       </c>
@@ -6309,7 +6323,7 @@
         <v>31210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>164</v>
       </c>
@@ -6329,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6337,16 +6351,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="16" style="15" customWidth="1"/>
     <col min="3" max="4" width="16" style="16" customWidth="1"/>
     <col min="5" max="5" width="16" style="15" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="15"/>
+    <col min="6" max="6" width="35.81640625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>217</v>
       </c>
@@ -6366,7 +6380,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -6387,7 +6401,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
@@ -6408,7 +6422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -6429,7 +6443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
@@ -6450,7 +6464,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -6471,7 +6485,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
@@ -6492,7 +6506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -6534,7 +6548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +6569,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
@@ -6576,7 +6590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
@@ -6597,7 +6611,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -6617,7 +6631,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
@@ -6638,7 +6652,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -6659,7 +6673,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
@@ -6679,7 +6693,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
@@ -6699,7 +6713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
@@ -6719,7 +6733,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
@@ -6739,7 +6753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
@@ -6759,7 +6773,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>35</v>
       </c>
@@ -6779,7 +6793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
@@ -6799,7 +6813,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
@@ -6819,7 +6833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -6859,7 +6873,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -6879,7 +6893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
@@ -6899,7 +6913,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>42</v>
       </c>
@@ -6919,7 +6933,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>43</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>44</v>
       </c>
@@ -6960,7 +6974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
@@ -6981,7 +6995,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>46</v>
       </c>
@@ -7002,7 +7016,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>47</v>
       </c>
@@ -7023,7 +7037,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
@@ -7044,7 +7058,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>49</v>
       </c>
@@ -7065,7 +7079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
@@ -7086,7 +7100,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
@@ -7106,7 +7120,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
@@ -7126,7 +7140,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
@@ -7146,7 +7160,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
@@ -7167,7 +7181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>55</v>
       </c>
@@ -7188,7 +7202,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>56</v>
       </c>
@@ -7209,7 +7223,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
@@ -7230,7 +7244,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>58</v>
       </c>
@@ -7251,7 +7265,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>59</v>
       </c>
@@ -7272,7 +7286,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>60</v>
       </c>
@@ -7293,7 +7307,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>61</v>
       </c>
@@ -7314,7 +7328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>62</v>
       </c>
@@ -7335,7 +7349,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>63</v>
       </c>
@@ -7356,7 +7370,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>64</v>
       </c>
@@ -7377,7 +7391,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>65</v>
       </c>
@@ -7398,7 +7412,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>66</v>
       </c>
@@ -7419,7 +7433,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>67</v>
       </c>
@@ -7440,7 +7454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>68</v>
       </c>
@@ -7461,7 +7475,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>69</v>
       </c>
@@ -7482,7 +7496,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>70</v>
       </c>
@@ -7503,7 +7517,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>71</v>
       </c>
@@ -7524,7 +7538,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>72</v>
       </c>
@@ -7545,7 +7559,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>73</v>
       </c>
@@ -7566,7 +7580,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>74</v>
       </c>
@@ -7587,7 +7601,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>75</v>
       </c>
@@ -7608,7 +7622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>76</v>
       </c>
@@ -7628,7 +7642,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>77</v>
       </c>
@@ -7649,7 +7663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>78</v>
       </c>
@@ -7670,7 +7684,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>79</v>
       </c>
@@ -7691,7 +7705,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>80</v>
       </c>
@@ -7712,7 +7726,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>81</v>
       </c>
@@ -7733,7 +7747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>82</v>
       </c>
@@ -7754,7 +7768,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>83</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>85</v>
       </c>
@@ -7817,7 +7831,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>86</v>
       </c>
@@ -7838,7 +7852,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>87</v>
       </c>
@@ -7859,7 +7873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>88</v>
       </c>
@@ -7880,7 +7894,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>89</v>
       </c>
@@ -7901,7 +7915,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
@@ -7922,7 +7936,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>91</v>
       </c>
@@ -7943,7 +7957,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>93</v>
       </c>
@@ -7964,7 +7978,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>94</v>
       </c>
@@ -7985,7 +7999,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>95</v>
       </c>
@@ -8006,7 +8020,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>96</v>
       </c>
@@ -8027,7 +8041,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>97</v>
       </c>
@@ -8047,7 +8061,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>98</v>
       </c>
@@ -8068,7 +8082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>99</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>100</v>
       </c>
@@ -8109,7 +8123,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>101</v>
       </c>
@@ -8129,7 +8143,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>102</v>
       </c>
@@ -8149,7 +8163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>103</v>
       </c>
@@ -8170,7 +8184,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>104</v>
       </c>
@@ -8191,7 +8205,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>105</v>
       </c>
